--- a/程序用_正式版_对照版/Language.xlsx
+++ b/程序用_正式版_对照版/Language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24907"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6A26EA-DF29-4296-8DC6-0EF7CE76F176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8314A64-91AF-4A8C-BEF5-CDF1B39A5805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="840" windowWidth="36480" windowHeight="19665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="1680" windowWidth="32430" windowHeight="16995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="1639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1711">
   <si>
     <t>ID</t>
   </si>
@@ -15812,6 +15812,486 @@
   </si>
   <si>
     <t>подробности</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>DamageScale</t>
+  </si>
+  <si>
+    <t>FinalDamageScale</t>
+  </si>
+  <si>
+    <t>WeaknessDamageScale</t>
+  </si>
+  <si>
+    <t>CriticalDamageSacle</t>
+  </si>
+  <si>
+    <t>CriticalDamageRate</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>SprintSkillCD</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>护甲</t>
+  </si>
+  <si>
+    <t>弱点攻击倍率</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>主动技能冷却时间</t>
+  </si>
+  <si>
+    <t>冲刺技能冷却时间</t>
+  </si>
+  <si>
+    <t>PlayerAbilityDesc_001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerAbilityDesc_002</t>
+  </si>
+  <si>
+    <t>PlayerAbilityDesc_003</t>
+  </si>
+  <si>
+    <t>PlayerAbilityDesc_004</t>
+  </si>
+  <si>
+    <t>PlayerAbilityDesc_005</t>
+  </si>
+  <si>
+    <t>PlayerAbilityDesc_006</t>
+  </si>
+  <si>
+    <t>PlayerAbilityDesc_007</t>
+  </si>
+  <si>
+    <t>PlayerAbilityDesc_008</t>
+  </si>
+  <si>
+    <t>PlayerAbilityDesc_009</t>
+  </si>
+  <si>
+    <t>PlayerAbilityDesc_010</t>
+  </si>
+  <si>
+    <t>PlayerAbilityDesc_011</t>
+  </si>
+  <si>
+    <t>ActiveSkillCD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+  </si>
+  <si>
+    <t>生命価値</t>
+  </si>
+  <si>
+    <t>防衛</t>
+  </si>
+  <si>
+    <t>最終ダメージ</t>
+  </si>
+  <si>
+    <t>弱点攻撃乗数</t>
+  </si>
+  <si>
+    <t>クリティカルダメージ</t>
+  </si>
+  <si>
+    <t>移動速度</t>
+  </si>
+  <si>
+    <t>アクティブスキルクールダウン</t>
+  </si>
+  <si>
+    <t>スプリントスキルのクールダウン</t>
+  </si>
+  <si>
+    <t>공격력</t>
+  </si>
+  <si>
+    <r>
+      <t>삶의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가치</t>
+    </r>
+  </si>
+  <si>
+    <t>방어</t>
+  </si>
+  <si>
+    <r>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>손상</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>약점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>배율</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>치명타</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>피해</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>중요한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기회</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>속도</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>액티브</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스킬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿨다운</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>스프린트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스킬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쿨다운</t>
+    </r>
+  </si>
+  <si>
+    <t>сила атаки</t>
+  </si>
+  <si>
+    <t>жизненная ценность</t>
+  </si>
+  <si>
+    <t>броня</t>
+  </si>
+  <si>
+    <t>Защита</t>
+  </si>
+  <si>
+    <t>окончательный урон</t>
+  </si>
+  <si>
+    <t>Множитель атаки слабости</t>
+  </si>
+  <si>
+    <t>критический урон</t>
+  </si>
+  <si>
+    <t>шанс крита</t>
+  </si>
+  <si>
+    <t>Скорость движения</t>
+  </si>
+  <si>
+    <t>Перезарядка активного навыка</t>
+  </si>
+  <si>
+    <t>Перезарядка навыка спринта</t>
+  </si>
+  <si>
+    <t>poder de ataque</t>
+  </si>
+  <si>
+    <t>valor da vida</t>
+  </si>
+  <si>
+    <t>Defesa</t>
+  </si>
+  <si>
+    <t>dano final</t>
+  </si>
+  <si>
+    <t>Multiplicador de Ataque de Fraqueza</t>
+  </si>
+  <si>
+    <t>dano crítico</t>
+  </si>
+  <si>
+    <t>chance crítica</t>
+  </si>
+  <si>
+    <t>Velocidade de movimento</t>
+  </si>
+  <si>
+    <t>Recarga de Habilidade Ativa</t>
+  </si>
+  <si>
+    <t>Recarga de Habilidade de Corrida</t>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -15986,7 +16466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16015,6 +16495,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16332,10 +16815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H275"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C281" sqref="C281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -23481,6 +23964,292 @@
       </c>
       <c r="H275" t="s">
         <v>1583</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="6">
+        <v>160000</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G276" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H276" s="6" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="6">
+        <v>160001</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D277" s="10" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F277" s="6" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G277" s="8" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H277" s="6" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="6">
+        <v>160002</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G278" s="8" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H278" s="6" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="6">
+        <v>160003</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D279" s="10" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G279" s="8" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H279" s="6" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="6">
+        <v>160004</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D280" s="10" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G280" s="8" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H280" s="6" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="6">
+        <v>160005</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D281" s="10" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G281" s="8" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H281" s="6" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="6">
+        <v>160006</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D282" s="10" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G282" s="8" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H282" s="6" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="6">
+        <v>160007</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D283" s="10" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F283" s="6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G283" s="8" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H283" s="6" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="6">
+        <v>160008</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D284" s="10" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F284" s="6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G284" s="8" t="s">
+        <v>1686</v>
+      </c>
+      <c r="H284" s="6" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="6">
+        <v>160009</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D285" s="10" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E285" s="6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F285" s="6" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G285" s="8" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H285" s="6" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="6">
+        <v>160010</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D286" s="10" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G286" s="8" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H286" s="6" t="s">
+        <v>1678</v>
       </c>
     </row>
   </sheetData>
